--- a/teaching/traditional_assets/database/data/canada/canada_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/canada/canada_insurance_life.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ9"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0463</v>
+        <v>0.127</v>
       </c>
       <c r="E2">
-        <v>-0.00302</v>
+        <v>0.0188</v>
       </c>
       <c r="F2">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G2">
-        <v>0.09161175365028813</v>
+        <v>0.08929774590540795</v>
       </c>
       <c r="H2">
-        <v>0.09161175365028813</v>
+        <v>0.08929774590540795</v>
       </c>
       <c r="I2">
-        <v>0.08109267645493376</v>
+        <v>0.07853796957690605</v>
       </c>
       <c r="J2">
-        <v>0.06997836640294508</v>
+        <v>0.06713121625561035</v>
       </c>
       <c r="K2">
-        <v>10618.3</v>
+        <v>9001.300000000001</v>
       </c>
       <c r="L2">
-        <v>0.05080594381168743</v>
+        <v>0.05016387284960425</v>
       </c>
       <c r="M2">
-        <v>9682.690000000001</v>
+        <v>5362.2836</v>
       </c>
       <c r="N2">
-        <v>0.07647704627866403</v>
+        <v>0.05210466245018885</v>
       </c>
       <c r="O2">
-        <v>0.9118870252300275</v>
+        <v>0.5957232399764477</v>
       </c>
       <c r="P2">
-        <v>3953.79</v>
+        <v>4621.5336</v>
       </c>
       <c r="Q2">
-        <v>0.0312283240304212</v>
+        <v>0.0449068841174693</v>
       </c>
       <c r="R2">
-        <v>0.3723562152133581</v>
+        <v>0.5134295712841478</v>
       </c>
       <c r="S2">
-        <v>5728.900000000001</v>
+        <v>740.7499999999999</v>
       </c>
       <c r="T2">
-        <v>0.5916640933459607</v>
+        <v>0.138140772711089</v>
       </c>
       <c r="U2">
-        <v>30723.6</v>
+        <v>38120.6</v>
       </c>
       <c r="V2">
-        <v>0.2426650217085502</v>
+        <v>0.3704132685930056</v>
       </c>
       <c r="W2">
-        <v>0.1152548069516994</v>
+        <v>0.1148954724933989</v>
       </c>
       <c r="X2">
-        <v>0.08224417499184765</v>
+        <v>0.0702546525476809</v>
       </c>
       <c r="Y2">
-        <v>0.03301063195985177</v>
+        <v>0.04464081994571799</v>
       </c>
       <c r="Z2">
-        <v>1.962802268658176</v>
+        <v>2.12643669052457</v>
       </c>
       <c r="AA2">
-        <v>0.1418892129783688</v>
+        <v>0.1640055371873848</v>
       </c>
       <c r="AB2">
-        <v>0.0674274766140603</v>
+        <v>0.05298436460127724</v>
       </c>
       <c r="AC2">
-        <v>0.0739397205554384</v>
+        <v>0.1107500471458487</v>
       </c>
       <c r="AD2">
-        <v>53168.1</v>
+        <v>49594.9</v>
       </c>
       <c r="AE2">
-        <v>3275.188402064602</v>
+        <v>269.9133442804575</v>
       </c>
       <c r="AF2">
-        <v>56443.2884020646</v>
+        <v>49864.81334428046</v>
       </c>
       <c r="AG2">
-        <v>25719.6884020646</v>
+        <v>11744.21334428046</v>
       </c>
       <c r="AH2">
-        <v>0.3083449983623813</v>
+        <v>0.32638629773751</v>
       </c>
       <c r="AI2">
-        <v>0.290926957450634</v>
+        <v>0.3060920265972529</v>
       </c>
       <c r="AJ2">
-        <v>0.1688432545933387</v>
+        <v>0.1024282842913459</v>
       </c>
       <c r="AK2">
-        <v>0.1575109192077207</v>
+        <v>0.09411384081872895</v>
       </c>
       <c r="AL2">
-        <v>2167.6</v>
+        <v>1844</v>
       </c>
       <c r="AM2">
-        <v>2167.6</v>
+        <v>1844</v>
       </c>
       <c r="AN2">
-        <v>2.75967399699368</v>
+        <v>3.164237428726357</v>
       </c>
       <c r="AO2">
-        <v>7.873546779848681</v>
+        <v>7.626572668112798</v>
       </c>
       <c r="AP2">
-        <v>1.334972573666496</v>
+        <v>0.7493004207069635</v>
       </c>
       <c r="AQ2">
-        <v>7.873546779848681</v>
+        <v>7.626572668112798</v>
       </c>
     </row>
     <row r="3">
@@ -728,121 +728,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0452</v>
+        <v>0.0761</v>
       </c>
       <c r="E3">
-        <v>-0.00775</v>
+        <v>-0.0333</v>
       </c>
       <c r="G3">
-        <v>0.09616627438464914</v>
+        <v>0.0787974402174037</v>
       </c>
       <c r="H3">
-        <v>0.09616627438464914</v>
+        <v>0.0787974402174037</v>
       </c>
       <c r="I3">
-        <v>0.08023526885715912</v>
+        <v>0.06922219359780774</v>
       </c>
       <c r="J3">
-        <v>0.07061366616641694</v>
+        <v>0.06122889281730891</v>
       </c>
       <c r="K3">
-        <v>914</v>
+        <v>1202.4</v>
       </c>
       <c r="L3">
-        <v>0.02430818739112512</v>
+        <v>0.02741256317952904</v>
       </c>
       <c r="M3">
-        <v>1549.3</v>
+        <v>857.9</v>
       </c>
       <c r="N3">
-        <v>0.1413092056658671</v>
+        <v>0.05461895969949704</v>
       </c>
       <c r="O3">
-        <v>1.69507658643326</v>
+        <v>0.7134896872920824</v>
       </c>
       <c r="P3">
-        <v>529.5</v>
+        <v>713</v>
       </c>
       <c r="Q3">
-        <v>0.04829485858134423</v>
+        <v>0.04539377347679378</v>
       </c>
       <c r="R3">
-        <v>0.5793216630196937</v>
+        <v>0.5929807052561543</v>
       </c>
       <c r="S3">
-        <v>1019.8</v>
+        <v>144.9</v>
       </c>
       <c r="T3">
-        <v>0.6582327502743174</v>
+        <v>0.1689008042895442</v>
       </c>
       <c r="U3">
-        <v>4595</v>
+        <v>5814.5</v>
       </c>
       <c r="V3">
-        <v>0.4191026915604849</v>
+        <v>0.3701852677150315</v>
       </c>
       <c r="W3">
-        <v>0.08437416341263027</v>
+        <v>0.123088262391745</v>
       </c>
       <c r="X3">
-        <v>0.117556630738954</v>
+        <v>0.08710351772086422</v>
       </c>
       <c r="Y3">
-        <v>-0.03318246732632373</v>
+        <v>0.03598474467088077</v>
       </c>
       <c r="Z3">
-        <v>2.955301145815919</v>
+        <v>3.926936919192824</v>
       </c>
       <c r="AA3">
-        <v>0.2086846485318748</v>
+        <v>0.2404419997255906</v>
       </c>
       <c r="AB3">
-        <v>0.06366946397701166</v>
+        <v>0.05155501000001905</v>
       </c>
       <c r="AC3">
-        <v>0.1450151845548632</v>
+        <v>0.1888869897255716</v>
       </c>
       <c r="AD3">
-        <v>13072.6</v>
+        <v>15145.3</v>
       </c>
       <c r="AE3">
-        <v>864.5688666819422</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>13937.16886668194</v>
+        <v>15145.3</v>
       </c>
       <c r="AG3">
-        <v>9342.168866681943</v>
+        <v>9330.799999999999</v>
       </c>
       <c r="AH3">
-        <v>0.5597016313355976</v>
+        <v>0.4908969509566548</v>
       </c>
       <c r="AI3">
-        <v>0.3390496762666664</v>
+        <v>0.3481222000795298</v>
       </c>
       <c r="AJ3">
-        <v>0.4600678214979616</v>
+        <v>0.3726685251899128</v>
       </c>
       <c r="AK3">
-        <v>0.2558687330252464</v>
+        <v>0.2475591119412489</v>
       </c>
       <c r="AL3">
-        <v>367.9</v>
+        <v>397</v>
       </c>
       <c r="AM3">
-        <v>367.9</v>
+        <v>397</v>
       </c>
       <c r="AN3">
-        <v>3.638149838583992</v>
+        <v>4.445739278480641</v>
       </c>
       <c r="AO3">
-        <v>8.319652079369394</v>
+        <v>7.648110831234257</v>
       </c>
       <c r="AP3">
-        <v>2.599957939074347</v>
+        <v>2.738955587518713</v>
       </c>
       <c r="AQ3">
-        <v>8.319652079369394</v>
+        <v>7.648110831234257</v>
       </c>
     </row>
     <row r="4">
@@ -853,7 +853,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Power Financial Corporation (TSX:PWF)</t>
+          <t>Sun Life Financial Inc. (TSX:SLF)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -862,121 +862,124 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0453</v>
+        <v>0.138</v>
       </c>
       <c r="E4">
-        <v>-0.0154</v>
+        <v>0.0188</v>
+      </c>
+      <c r="F4">
+        <v>0.08</v>
       </c>
       <c r="G4">
-        <v>0.09785373932639181</v>
+        <v>0.09339010005963819</v>
       </c>
       <c r="H4">
-        <v>0.09785373932639181</v>
+        <v>0.09339010005963819</v>
       </c>
       <c r="I4">
-        <v>0.08463062580128164</v>
+        <v>0.08457358690610298</v>
       </c>
       <c r="J4">
-        <v>0.07364507557352978</v>
+        <v>0.06947129375148185</v>
       </c>
       <c r="K4">
-        <v>1646</v>
+        <v>1856.1</v>
       </c>
       <c r="L4">
-        <v>0.04469000719492825</v>
+        <v>0.06149691869326088</v>
       </c>
       <c r="M4">
-        <v>2187.6</v>
+        <v>1115.35</v>
       </c>
       <c r="N4">
-        <v>0.1231569524903309</v>
+        <v>0.04291937153433819</v>
       </c>
       <c r="O4">
-        <v>1.329040097205346</v>
+        <v>0.6009105112871074</v>
       </c>
       <c r="P4">
-        <v>941.2</v>
+        <v>965.25</v>
       </c>
       <c r="Q4">
-        <v>0.0529874399725267</v>
+        <v>0.03714342885508579</v>
       </c>
       <c r="R4">
-        <v>0.5718104495747266</v>
+        <v>0.5200420235978666</v>
       </c>
       <c r="S4">
-        <v>1246.4</v>
+        <v>150.0999999999999</v>
       </c>
       <c r="T4">
-        <v>0.5697568111172061</v>
+        <v>0.134576590307975</v>
       </c>
       <c r="U4">
-        <v>4094.9</v>
+        <v>7061.2</v>
       </c>
       <c r="V4">
-        <v>0.2305336463488096</v>
+        <v>0.271719430024897</v>
       </c>
       <c r="W4">
-        <v>0.1152548069516994</v>
+        <v>0.1120928097786045</v>
       </c>
       <c r="X4">
-        <v>0.09654324625783391</v>
+        <v>0.05923127839049719</v>
       </c>
       <c r="Y4">
-        <v>0.01871156069386551</v>
+        <v>0.05286153138810729</v>
       </c>
       <c r="Z4">
-        <v>2.13558832949765</v>
+        <v>2.394579627587411</v>
       </c>
       <c r="AA4">
-        <v>0.1572755639198027</v>
+        <v>0.1663545447194391</v>
       </c>
       <c r="AB4">
-        <v>0.06532039053130252</v>
+        <v>0.05405766990942781</v>
       </c>
       <c r="AC4">
-        <v>0.09195517338850016</v>
+        <v>0.1122968748100112</v>
       </c>
       <c r="AD4">
-        <v>11930.4</v>
+        <v>3415</v>
       </c>
       <c r="AE4">
-        <v>662.1355290004766</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>12592.53552900048</v>
+        <v>3415</v>
       </c>
       <c r="AG4">
-        <v>8497.635529000476</v>
+        <v>-3646.2</v>
       </c>
       <c r="AH4">
-        <v>0.4148389992550032</v>
+        <v>0.1161481662874421</v>
       </c>
       <c r="AI4">
-        <v>0.335844512930506</v>
+        <v>0.1494640739135953</v>
       </c>
       <c r="AJ4">
-        <v>0.3235920393940189</v>
+        <v>-0.163207390928745</v>
       </c>
       <c r="AK4">
-        <v>0.2544184313198097</v>
+        <v>-0.2309607210950713</v>
       </c>
       <c r="AL4">
-        <v>290.8</v>
+        <v>271.7</v>
       </c>
       <c r="AM4">
-        <v>290.8</v>
+        <v>271.7</v>
       </c>
       <c r="AN4">
-        <v>3.339790605229271</v>
+        <v>1.192721430567198</v>
       </c>
       <c r="AO4">
-        <v>10.81636863823934</v>
+        <v>9.394920868605078</v>
       </c>
       <c r="AP4">
-        <v>2.378824122109758</v>
+        <v>-1.273470243084661</v>
       </c>
       <c r="AQ4">
-        <v>10.81636863823934</v>
+        <v>9.394920868605078</v>
       </c>
     </row>
     <row r="5">
@@ -987,7 +990,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sun Life Financial Inc. (TSX:SLF)</t>
+          <t>Great-West Lifeco Inc. (TSX:GWO)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -996,124 +999,121 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.112</v>
+        <v>0.08460000000000001</v>
       </c>
       <c r="E5">
-        <v>0.05980000000000001</v>
-      </c>
-      <c r="F5">
-        <v>0.07000000000000001</v>
+        <v>-0.0133</v>
       </c>
       <c r="G5">
-        <v>0.09071755519655358</v>
+        <v>0.06665294803578603</v>
       </c>
       <c r="H5">
-        <v>0.09071755519655358</v>
+        <v>0.06665294803578603</v>
       </c>
       <c r="I5">
-        <v>0.07804625512702525</v>
+        <v>0.06019784225534292</v>
       </c>
       <c r="J5">
-        <v>0.06967848535565835</v>
+        <v>0.0552747885606923</v>
       </c>
       <c r="K5">
-        <v>1943.6</v>
+        <v>2009.2</v>
       </c>
       <c r="L5">
-        <v>0.06541464728056004</v>
+        <v>0.04922048779531803</v>
       </c>
       <c r="M5">
-        <v>1535.79</v>
+        <v>1252.6</v>
       </c>
       <c r="N5">
-        <v>0.05759615673097117</v>
+        <v>0.05668540190248626</v>
       </c>
       <c r="O5">
-        <v>0.790178020168759</v>
+        <v>0.6234322118256022</v>
       </c>
       <c r="P5">
-        <v>911.0899999999999</v>
+        <v>1203.1</v>
       </c>
       <c r="Q5">
-        <v>0.0341682667786745</v>
+        <v>0.05444531935883859</v>
       </c>
       <c r="R5">
-        <v>0.4687641490018522</v>
+        <v>0.5987955405136373</v>
       </c>
       <c r="S5">
-        <v>624.7</v>
+        <v>49.5</v>
       </c>
       <c r="T5">
-        <v>0.4067613410687659</v>
+        <v>0.03951780296982277</v>
       </c>
       <c r="U5">
-        <v>4702.2</v>
+        <v>4032</v>
       </c>
       <c r="V5">
-        <v>0.1763448441390897</v>
+        <v>0.1824649053734828</v>
       </c>
       <c r="W5">
-        <v>0.1175175949887537</v>
+        <v>0.136221566832774</v>
       </c>
       <c r="X5">
-        <v>0.07586228234729156</v>
+        <v>0.06518660762816848</v>
       </c>
       <c r="Y5">
-        <v>0.04165531264146216</v>
+        <v>0.07103495920460552</v>
       </c>
       <c r="Z5">
-        <v>2.169955238525714</v>
+        <v>2.967094790553654</v>
       </c>
       <c r="AA5">
-        <v>0.1511991943100481</v>
+        <v>0.1640055371873848</v>
       </c>
       <c r="AB5">
-        <v>0.06851383311248165</v>
+        <v>0.05325549004153616</v>
       </c>
       <c r="AC5">
-        <v>0.08268536119756646</v>
+        <v>0.1107500471458487</v>
       </c>
       <c r="AD5">
-        <v>3476.3</v>
+        <v>6836</v>
       </c>
       <c r="AE5">
-        <v>671.9483383291276</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>4148.248338329127</v>
+        <v>6836</v>
       </c>
       <c r="AG5">
-        <v>-553.9516616708725</v>
+        <v>2804</v>
       </c>
       <c r="AH5">
-        <v>0.1346263535104061</v>
+        <v>0.2362667367125882</v>
       </c>
       <c r="AI5">
-        <v>0.18496795785788</v>
+        <v>0.2547248554224051</v>
       </c>
       <c r="AJ5">
-        <v>-0.02121538352538723</v>
+        <v>0.1126041106122547</v>
       </c>
       <c r="AK5">
-        <v>-0.03125318207148659</v>
+        <v>0.1229565705465516</v>
       </c>
       <c r="AL5">
-        <v>238.7</v>
+        <v>192.9</v>
       </c>
       <c r="AM5">
-        <v>238.7</v>
+        <v>192.9</v>
       </c>
       <c r="AN5">
-        <v>1.347455327725881</v>
+        <v>2.506324472960586</v>
       </c>
       <c r="AO5">
-        <v>9.854210305823209</v>
+        <v>12.73872472783826</v>
       </c>
       <c r="AP5">
-        <v>-0.2147182687975784</v>
+        <v>1.028047662694775</v>
       </c>
       <c r="AQ5">
-        <v>9.854210305823209</v>
+        <v>12.73872472783826</v>
       </c>
     </row>
     <row r="6">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Great-West Lifeco Inc. (TSX:GWO)</t>
+          <t>iA Financial Corporation Inc. (TSX:IAG)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1133,124 +1133,121 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0463</v>
+        <v>0.132</v>
       </c>
       <c r="E6">
-        <v>-0.00302</v>
-      </c>
-      <c r="F6">
-        <v>0.04</v>
+        <v>0.0471</v>
       </c>
       <c r="G6">
-        <v>0.08604262927804508</v>
+        <v>0.0733155289434739</v>
       </c>
       <c r="H6">
-        <v>0.08604262927804508</v>
+        <v>0.0733155289434739</v>
       </c>
       <c r="I6">
-        <v>0.07062931832470924</v>
+        <v>0.05399322857407185</v>
       </c>
       <c r="J6">
-        <v>0.06401749128727464</v>
+        <v>0.04472566376032772</v>
       </c>
       <c r="K6">
-        <v>2031.2</v>
+        <v>474.3</v>
       </c>
       <c r="L6">
-        <v>0.05876787672402071</v>
+        <v>0.04034055148247061</v>
       </c>
       <c r="M6">
-        <v>2704.2</v>
+        <v>156.85</v>
       </c>
       <c r="N6">
-        <v>0.1142748478701825</v>
+        <v>0.03384691741654258</v>
       </c>
       <c r="O6">
-        <v>1.331331232768806</v>
+        <v>0.3306978705460679</v>
       </c>
       <c r="P6">
-        <v>1177.6</v>
+        <v>153.1</v>
       </c>
       <c r="Q6">
-        <v>0.04976335361730899</v>
+        <v>0.03303769879804061</v>
       </c>
       <c r="R6">
-        <v>0.5797558093737691</v>
+        <v>0.3227914821842716</v>
       </c>
       <c r="S6">
-        <v>1526.6</v>
+        <v>3.75</v>
       </c>
       <c r="T6">
-        <v>0.5645292507950596</v>
+        <v>0.02390819254064393</v>
       </c>
       <c r="U6">
-        <v>2910.5</v>
+        <v>970.5</v>
       </c>
       <c r="V6">
-        <v>0.1229927315753888</v>
+        <v>0.209425778468311</v>
       </c>
       <c r="W6">
-        <v>0.1250069236308135</v>
+        <v>0.1148954724933989</v>
       </c>
       <c r="X6">
-        <v>0.07848357492509479</v>
+        <v>0.0702546525476809</v>
       </c>
       <c r="Y6">
-        <v>0.04652334870571874</v>
+        <v>0.04464081994571799</v>
       </c>
       <c r="Z6">
-        <v>2.216413204035901</v>
+        <v>2.38692339115133</v>
       </c>
       <c r="AA6">
-        <v>0.1418892129783688</v>
+        <v>0.1067567330142956</v>
       </c>
       <c r="AB6">
-        <v>0.06794949242293039</v>
+        <v>0.05298436460127724</v>
       </c>
       <c r="AC6">
-        <v>0.0739397205554384</v>
+        <v>0.05377236841301834</v>
       </c>
       <c r="AD6">
-        <v>4771</v>
+        <v>2134.6</v>
       </c>
       <c r="AE6">
-        <v>570.1590390562122</v>
+        <v>0.7550718160379746</v>
       </c>
       <c r="AF6">
-        <v>5341.159039056212</v>
+        <v>2135.355071816038</v>
       </c>
       <c r="AG6">
-        <v>2430.659039056212</v>
+        <v>1164.855071816038</v>
       </c>
       <c r="AH6">
-        <v>0.1841451388652688</v>
+        <v>0.3154397287761579</v>
       </c>
       <c r="AI6">
-        <v>0.2194011750568064</v>
+        <v>0.3076368485825166</v>
       </c>
       <c r="AJ6">
-        <v>0.09314776006148284</v>
+        <v>0.2008732706824101</v>
       </c>
       <c r="AK6">
-        <v>0.1134033015220106</v>
+        <v>0.1950966950535521</v>
       </c>
       <c r="AL6">
-        <v>200.9</v>
+        <v>51</v>
       </c>
       <c r="AM6">
-        <v>200.9</v>
+        <v>51</v>
       </c>
       <c r="AN6">
-        <v>1.706305210829369</v>
+        <v>2.539162169267169</v>
       </c>
       <c r="AO6">
-        <v>12.31408661025386</v>
+        <v>12.43529411764706</v>
       </c>
       <c r="AP6">
-        <v>0.8693033293001724</v>
+        <v>1.385625377604363</v>
       </c>
       <c r="AQ6">
-        <v>12.31408661025386</v>
+        <v>12.43529411764706</v>
       </c>
     </row>
     <row r="7">
@@ -1270,392 +1267,121 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.115</v>
+        <v>0.127</v>
       </c>
       <c r="E7">
-        <v>0.0159</v>
-      </c>
-      <c r="F7">
-        <v>0.08</v>
+        <v>0.113</v>
       </c>
       <c r="G7">
-        <v>0.09516057369952602</v>
+        <v>0.1167395626242545</v>
       </c>
       <c r="H7">
-        <v>0.09516057369952602</v>
+        <v>0.1167395626242545</v>
       </c>
       <c r="I7">
-        <v>0.08930461279334055</v>
+        <v>0.1024646094008732</v>
       </c>
       <c r="J7">
-        <v>0.07809599289523712</v>
+        <v>0.0841514917462995</v>
       </c>
       <c r="K7">
-        <v>3405.2</v>
+        <v>3459.3</v>
       </c>
       <c r="L7">
-        <v>0.05980046608257072</v>
+        <v>0.06549843794376597</v>
       </c>
       <c r="M7">
-        <v>1408.1</v>
+        <v>1979.5836</v>
       </c>
       <c r="N7">
-        <v>0.03582979004928791</v>
+        <v>0.05739903328974342</v>
       </c>
       <c r="O7">
-        <v>0.4135146246916481</v>
+        <v>0.5722497615124447</v>
       </c>
       <c r="P7">
-        <v>239.5</v>
+        <v>1587.0836</v>
       </c>
       <c r="Q7">
-        <v>0.006094194103262876</v>
+        <v>0.0460182961659239</v>
       </c>
       <c r="R7">
-        <v>0.07033360742393986</v>
+        <v>0.4587875003613447</v>
       </c>
       <c r="S7">
-        <v>1168.6</v>
+        <v>392.5</v>
       </c>
       <c r="T7">
-        <v>0.8299126482494141</v>
+        <v>0.1982740208597404</v>
       </c>
       <c r="U7">
-        <v>13610.4</v>
+        <v>20242.4</v>
       </c>
       <c r="V7">
-        <v>0.3463232543759876</v>
+        <v>0.5869386831979727</v>
       </c>
       <c r="W7">
-        <v>0.1085623742679245</v>
+        <v>0.09998179153913518</v>
       </c>
       <c r="X7">
-        <v>0.08731735902733752</v>
+        <v>0.07650526848899297</v>
       </c>
       <c r="Y7">
-        <v>0.02124501524058697</v>
+        <v>0.02347652305014221</v>
       </c>
       <c r="Z7">
-        <v>1.521906593123363</v>
+        <v>1.259696722956196</v>
       </c>
       <c r="AA7">
-        <v>0.1188548064837767</v>
+        <v>0.1060053583846888</v>
       </c>
       <c r="AB7">
-        <v>0.06668189331771505</v>
+        <v>0.05252949220558252</v>
       </c>
       <c r="AC7">
-        <v>0.05217291316606164</v>
+        <v>0.05347586617910631</v>
       </c>
       <c r="AD7">
-        <v>17781.6</v>
+        <v>22064</v>
       </c>
       <c r="AE7">
-        <v>377.7711254632385</v>
+        <v>269.1582724644196</v>
       </c>
       <c r="AF7">
-        <v>18159.37112546324</v>
+        <v>22333.15827246442</v>
       </c>
       <c r="AG7">
-        <v>4548.971125463237</v>
+        <v>2090.75827246442</v>
       </c>
       <c r="AH7">
-        <v>0.316040109416524</v>
+        <v>0.393042304085812</v>
       </c>
       <c r="AI7">
-        <v>0.3213480871392743</v>
+        <v>0.3557597348897893</v>
       </c>
       <c r="AJ7">
-        <v>0.103742508238103</v>
+        <v>0.05715755961793609</v>
       </c>
       <c r="AK7">
-        <v>0.1060376830378888</v>
+        <v>0.04915549879629857</v>
       </c>
       <c r="AL7">
-        <v>1022</v>
+        <v>931.4</v>
       </c>
       <c r="AM7">
-        <v>1022</v>
+        <v>931.4</v>
       </c>
       <c r="AN7">
-        <v>3.176760638868046</v>
+        <v>3.780995630194499</v>
       </c>
       <c r="AO7">
-        <v>4.957240704500979</v>
+        <v>5.779471762937513</v>
       </c>
       <c r="AP7">
-        <v>0.8126935944301349</v>
+        <v>0.3582826274465633</v>
       </c>
       <c r="AQ7">
-        <v>4.957240704500979</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>iA Financial Corporation Inc. (TSX:IAG)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Insurance (Life)</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>0.114</v>
-      </c>
-      <c r="E8">
-        <v>0.11</v>
-      </c>
-      <c r="G8">
-        <v>0.0648949694291422</v>
-      </c>
-      <c r="H8">
-        <v>0.0648949694291422</v>
-      </c>
-      <c r="I8">
-        <v>0.06278210064456854</v>
-      </c>
-      <c r="J8">
-        <v>0.04897606980633784</v>
-      </c>
-      <c r="K8">
-        <v>519.7</v>
-      </c>
-      <c r="L8">
-        <v>0.04494391739382357</v>
-      </c>
-      <c r="M8">
-        <v>282.5</v>
-      </c>
-      <c r="N8">
-        <v>0.0483583826902667</v>
-      </c>
-      <c r="O8">
-        <v>0.5435828362516836</v>
-      </c>
-      <c r="P8">
-        <v>139.7</v>
-      </c>
-      <c r="Q8">
-        <v>0.02391386216577082</v>
-      </c>
-      <c r="R8">
-        <v>0.2688089282278237</v>
-      </c>
-      <c r="S8">
-        <v>142.8</v>
-      </c>
-      <c r="T8">
-        <v>0.5054867256637169</v>
-      </c>
-      <c r="U8">
-        <v>530.3</v>
-      </c>
-      <c r="V8">
-        <v>0.09077681536512718</v>
-      </c>
-      <c r="W8">
-        <v>0.1287469652677996</v>
-      </c>
-      <c r="X8">
-        <v>0.08224417499184765</v>
-      </c>
-      <c r="Y8">
-        <v>0.04650279027595199</v>
-      </c>
-      <c r="Z8">
-        <v>2.274467739057129</v>
-      </c>
-      <c r="AA8">
-        <v>0.1113944907603254</v>
-      </c>
-      <c r="AB8">
-        <v>0.0674274766140603</v>
-      </c>
-      <c r="AC8">
-        <v>0.04396701414626505</v>
-      </c>
-      <c r="AD8">
-        <v>1785.7</v>
-      </c>
-      <c r="AE8">
-        <v>120.6586780833033</v>
-      </c>
-      <c r="AF8">
-        <v>1906.358678083303</v>
-      </c>
-      <c r="AG8">
-        <v>1376.058678083303</v>
-      </c>
-      <c r="AH8">
-        <v>0.2460402215917044</v>
-      </c>
-      <c r="AI8">
-        <v>0.2964299928688366</v>
-      </c>
-      <c r="AJ8">
-        <v>0.1906463868933375</v>
-      </c>
-      <c r="AK8">
-        <v>0.2332002973099516</v>
-      </c>
-      <c r="AL8">
-        <v>37</v>
-      </c>
-      <c r="AM8">
-        <v>37</v>
-      </c>
-      <c r="AN8">
-        <v>2.043135011441648</v>
-      </c>
-      <c r="AO8">
-        <v>19.61891891891892</v>
-      </c>
-      <c r="AP8">
-        <v>1.574437846777235</v>
-      </c>
-      <c r="AQ8">
-        <v>19.61891891891892</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>E-L Financial Corporation Limited (TSX:ELF)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Insurance (Life)</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>0.00436</v>
-      </c>
-      <c r="E9">
-        <v>-0.226</v>
-      </c>
-      <c r="G9">
-        <v>0.04943669076845469</v>
-      </c>
-      <c r="H9">
-        <v>0.04943669076845469</v>
-      </c>
-      <c r="I9">
-        <v>0.136141827761863</v>
-      </c>
-      <c r="J9">
-        <v>0.1138918265881907</v>
-      </c>
-      <c r="K9">
-        <v>158.6</v>
-      </c>
-      <c r="L9">
-        <v>0.08889636231152963</v>
-      </c>
-      <c r="M9">
-        <v>15.2</v>
-      </c>
-      <c r="N9">
-        <v>0.006301301716275599</v>
-      </c>
-      <c r="O9">
-        <v>0.09583858764186633</v>
-      </c>
-      <c r="P9">
-        <v>15.2</v>
-      </c>
-      <c r="Q9">
-        <v>0.006301301716275599</v>
-      </c>
-      <c r="R9">
-        <v>0.09583858764186633</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>280.3</v>
-      </c>
-      <c r="V9">
-        <v>0.1162009783600033</v>
-      </c>
-      <c r="W9">
-        <v>0.0352608995308922</v>
-      </c>
-      <c r="X9">
-        <v>0.07560168806577577</v>
-      </c>
-      <c r="Y9">
-        <v>-0.04034078853488358</v>
-      </c>
-      <c r="Z9">
-        <v>0.3777114607043164</v>
-      </c>
-      <c r="AA9">
-        <v>0.0430182481829082</v>
-      </c>
-      <c r="AB9">
-        <v>0.06867012359813121</v>
-      </c>
-      <c r="AC9">
-        <v>-0.02565187541522301</v>
-      </c>
-      <c r="AD9">
-        <v>350.5</v>
-      </c>
-      <c r="AE9">
-        <v>7.946825450301379</v>
-      </c>
-      <c r="AF9">
-        <v>358.4468254503014</v>
-      </c>
-      <c r="AG9">
-        <v>78.14682545030138</v>
-      </c>
-      <c r="AH9">
-        <v>0.129372976071046</v>
-      </c>
-      <c r="AI9">
-        <v>0.06290696381245942</v>
-      </c>
-      <c r="AJ9">
-        <v>0.03137989642714563</v>
-      </c>
-      <c r="AK9">
-        <v>0.01442422984462847</v>
-      </c>
-      <c r="AL9">
-        <v>10.3</v>
-      </c>
-      <c r="AM9">
-        <v>10.3</v>
-      </c>
-      <c r="AN9">
-        <v>1.383843967150979</v>
-      </c>
-      <c r="AO9">
-        <v>23.51456310679611</v>
-      </c>
-      <c r="AP9">
-        <v>0.3085392666231103</v>
-      </c>
-      <c r="AQ9">
-        <v>23.51456310679611</v>
+        <v>5.779471762937513</v>
       </c>
     </row>
   </sheetData>
